--- a/biology/Médecine/Jacques-Louis_Doussin-Dubreuil/Jacques-Louis_Doussin-Dubreuil.xlsx
+++ b/biology/Médecine/Jacques-Louis_Doussin-Dubreuil/Jacques-Louis_Doussin-Dubreuil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques-Louis Doussin-Dubreuil, né le 5 octobre 1762 à Saintes et mort le 23 avril 1831 à Paris[1], est un médecin et chirurgien français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques-Louis Doussin-Dubreuil, né le 5 octobre 1762 à Saintes et mort le 23 avril 1831 à Paris, est un médecin et chirurgien français.
 Précurseur en vaccination, il est le fondateur de la Société royale académique des sciences de Paris (dissoute en 1826), de la Société d'encouragement pour l'industrie nationale et de la Société Galvanique et de Recherche physique.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques-Louis Doussin-Dubreuil est né à Saintes le 5 octobre 1762, fils de Jacques-Louis Doussin (1723-1801), chirurgien, fondateur de l'École de chirurgie de Saintes, et de Catherine Chéron. Il apprend la chirurgie avec son père puis à Paris où il est l'un des premiers à s'être déclaré en faveur de la vaccination (il vaccina ses propres enfants). Membre de la Société centrale de Vaccine, il proposa l'idée de dépôts de vaccins dans toute la France, ce qui contribua à réduire les effets d'une épidémie variolique. Il a été médecin titulaire du bureau de charité du 10e arrondissement de Paris.
 Il fonda la Société royale académique des Sciences de Paris, sous la présidence perpétuelle du duc d'Angoulême (la société a été dissoute en 1826), la Société d'encouragement pour l'industrie nationale et la Société Galvanique et de Recherche physique. Il est du reste membre de la Société de Médecine pratique de Montpellier, du Comité centrale de Vaccine.
@@ -546,7 +560,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1794 : Des Glaires, de leurs causes et de leurs effets, et des indications à remplir pour les combattre, Paris.
 1797 : De l'Épilepsie en général, et particulièrement de celle déterminée par des causes morales, Paris.
